--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/主营业务收入.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/主营业务收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2003.48403</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5229.58031</v>
-      </c>
-      <c r="D2" t="n">
-        <v>849.58874</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.96948</v>
-      </c>
-      <c r="F2" t="n">
-        <v>886.83134</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5422.06243</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1192.79588</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1627.4836</v>
-      </c>
-      <c r="J2" t="n">
-        <v>588.0046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1799.7326</v>
-      </c>
-      <c r="L2" t="n">
-        <v>344.59168</v>
-      </c>
-      <c r="M2" t="n">
-        <v>588.09398</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2839.71981</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2087.58714</v>
-      </c>
-      <c r="P2" t="n">
-        <v>375.18479</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2133.01267</v>
-      </c>
-      <c r="R2" t="n">
-        <v>620.99515</v>
-      </c>
-      <c r="S2" t="n">
-        <v>108.50064</v>
-      </c>
-      <c r="T2" t="n">
-        <v>731.77862</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1430.75514</v>
-      </c>
-      <c r="V2" t="n">
-        <v>234.65046</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1213.77438</v>
-      </c>
-      <c r="X2" t="n">
-        <v>6819.67264</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7363.26799</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>4527.29192</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1238.19297</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4571.02532</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2914.99426</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>4810.45364</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>308.06571</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>84151.75</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1503.0885</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2369.78886</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>3364.17434</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>323.19702</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1353.07356</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>3477.51758</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1647.47348</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4887.05325</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>152.83729</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2158.27946</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6220.4601</v>
-      </c>
-      <c r="D3" t="n">
-        <v>933.23254</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.84309</v>
-      </c>
-      <c r="F3" t="n">
-        <v>986.60037</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6033.79859</v>
-      </c>
-      <c r="H3" t="n">
-        <v>957.28975</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1924.3875</v>
-      </c>
-      <c r="J3" t="n">
-        <v>679.24542</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2040.59244</v>
-      </c>
-      <c r="L3" t="n">
-        <v>409.62263</v>
-      </c>
-      <c r="M3" t="n">
-        <v>644.24898</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3222.1062</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2260.62033</v>
-      </c>
-      <c r="P3" t="n">
-        <v>390.48462</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2415.97306</v>
-      </c>
-      <c r="R3" t="n">
-        <v>676.71874</v>
-      </c>
-      <c r="S3" t="n">
-        <v>94.56545</v>
-      </c>
-      <c r="T3" t="n">
-        <v>806.0200599999999</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1756.96991</v>
-      </c>
-      <c r="V3" t="n">
-        <v>252.30529</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1503.14691</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7712.32752</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8899.508260000001</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>5099.90203</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1427.9057</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>4629.3359</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2658.32192</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5209.09548</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>324.08604</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>93733</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1685.39555</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2635.48837</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3671.10353</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>344.17587</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1519.01637</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>3823.50771</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1727.21413</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5600.65002</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>178.54396</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2630.5222</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8030.04431</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1089.06407</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.86347</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1132.3175</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6974.71267</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1086.55195</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2279.97746</v>
-      </c>
-      <c r="J4" t="n">
-        <v>771.6127</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2371.52405</v>
-      </c>
-      <c r="L4" t="n">
-        <v>492.79758</v>
-      </c>
-      <c r="M4" t="n">
-        <v>733.6541999999999</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3992.41414</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2547.31508</v>
-      </c>
-      <c r="P4" t="n">
-        <v>429.28139</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2725.50069</v>
-      </c>
-      <c r="R4" t="n">
-        <v>771.09566</v>
-      </c>
-      <c r="S4" t="n">
-        <v>95.45662</v>
-      </c>
-      <c r="T4" t="n">
-        <v>961.84316</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1994.36563</v>
-      </c>
-      <c r="V4" t="n">
-        <v>322.8117</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1960.74835</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8958.065930000001</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10957.25241</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>5749.17402</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1677.13332</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4893.56913</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2640.83038</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6038.59085</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>354.63915</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>109485.77</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1968.06057</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>3083.61516</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>4226.61757</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>393.06031</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1827.5512</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>4515.94455</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1872.68693</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6471.50696</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>215.35182</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
